--- a/src/test/resources/xlsx/city.xlsx
+++ b/src/test/resources/xlsx/city.xlsx
@@ -1,21 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="26405"/>
+  <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="100" windowWidth="14800" windowHeight="8020" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="国家" sheetId="2" r:id="rId1"/>
     <sheet name="城市" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="122211" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="24">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -81,7 +86,35 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>10011 = 中国，20011 = 美国</t>
+    <t>中国</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>美国</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>普通城市</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>经济中心</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>经济中心</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>普通城市</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>政治中心</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>政治中心</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -89,7 +122,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -119,6 +152,22 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -137,16 +186,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+  <cellStyles count="3">
+    <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -204,7 +257,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -239,7 +292,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -454,14 +507,14 @@
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="7.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="5.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="8.88671875" style="1"/>
+    <col min="3" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="2" customFormat="1" ht="15.6" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:2" s="2" customFormat="1">
       <c r="A1" s="2" t="s">
         <v>11</v>
       </c>
@@ -469,7 +522,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2">
       <c r="A2" s="1">
         <v>10011</v>
       </c>
@@ -477,7 +530,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2">
       <c r="A3" s="1">
         <v>20011</v>
       </c>
@@ -488,6 +541,11 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -496,18 +554,18 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="11.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.88671875" style="1"/>
-    <col min="3" max="3" width="28.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="11.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.83203125" style="1"/>
+    <col min="3" max="3" width="6.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="2" customFormat="1" ht="15.6" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" s="2" customFormat="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -521,114 +579,117 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="1">
-        <v>10011</v>
-      </c>
-      <c r="D3" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="1">
-        <v>10011</v>
-      </c>
-      <c r="D4" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="1">
-        <v>10011</v>
-      </c>
-      <c r="D5" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="1">
-        <v>10011</v>
-      </c>
-      <c r="D6" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="1">
-        <v>10011</v>
-      </c>
-      <c r="D7" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="1">
-        <v>20011</v>
-      </c>
-      <c r="D8" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="1">
-        <v>20011</v>
-      </c>
-      <c r="D9" s="1">
-        <v>4</v>
+      <c r="C9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>